--- a/data/trans_orig/P19F$mañana-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19F$mañana-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16267FA0-C750-4A5B-9D24-67A65B440B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2DD5AB4-4290-4DC4-B37E-B5EE41B96F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1578AC10-1EC1-48AD-A35E-201FA5DD626F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C023D72A-7101-46F6-8A12-5FDC5CED6F25}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="178">
-  <si>
-    <t>Población según el momento del día en que acostumbra a cepillarse los dientes en 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="150">
+  <si>
+    <t>Población según el momento del día en que acostumbra a cepillarse los dientes (multirrespuesta) en 2016</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -59,181 +59,97 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Mañana</t>
   </si>
   <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
   </si>
   <si>
     <t>Tarde</t>
   </si>
   <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
   </si>
   <si>
     <t>Noche</t>
   </si>
   <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -320,7 +236,7 @@
     <t>82,17%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>34,0%</t>
@@ -981,8 +897,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859BFAB6-540C-490A-B502-5AB8F9C3730E}">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9518EF04-3398-4494-9FAC-F8D199981550}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1467,37 +1383,37 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1506,31 +1422,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1539,145 +1455,43 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>177</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
